--- a/v2.0.2/03-Analysis and design/eForms2ePO/WorkingGroupFollowUp.xlsx
+++ b/v2.0.2/03-Analysis and design/eForms2ePO/WorkingGroupFollowUp.xlsx
@@ -47252,8 +47252,8 @@
 </file>
 
 <file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x0101001D0A01FC211A0A44AF46DCFC7788647F" ma:contentTypeVersion="6" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="cb8996f3c460f686c4ceead8a704479d">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="8a9dc265-2a70-4a01-bf40-b0bb55b38d64" xmlns:ns3="56068758-a483-4a4b-84d7-1662caf98f10" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="319a6b9d4f2405982df31065c3fa6c19" ns2:_="" ns3:_="">
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x0101001D0A01FC211A0A44AF46DCFC7788647F" ma:contentTypeVersion="10" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="d0b552c268e14c49f727da8a4278bee4">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="8a9dc265-2a70-4a01-bf40-b0bb55b38d64" xmlns:ns3="56068758-a483-4a4b-84d7-1662caf98f10" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0145bd77e5eea22887f69a1ea8dc854b" ns2:_="" ns3:_="">
     <xsd:import namespace="8a9dc265-2a70-4a01-bf40-b0bb55b38d64"/>
     <xsd:import namespace="56068758-a483-4a4b-84d7-1662caf98f10"/>
     <xsd:element name="properties">
@@ -47268,6 +47268,10 @@
                 <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
                 <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceAutoKeyPoints" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceKeyPoints" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
               </xsd:all>
             </xsd:complexType>
           </xsd:element>
@@ -47298,6 +47302,28 @@
         <xsd:restriction base="dms:Note">
           <xsd:maxLength value="255"/>
         </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceAutoKeyPoints" ma:index="14" nillable="true" ma:displayName="MediaServiceAutoKeyPoints" ma:hidden="true" ma:internalName="MediaServiceAutoKeyPoints" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceKeyPoints" ma:index="15" nillable="true" ma:displayName="KeyPoints" ma:internalName="MediaServiceKeyPoints" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceGenerationTime" ma:index="16" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceEventHashCode" ma:index="17" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
       </xsd:simpleType>
     </xsd:element>
   </xsd:schema>
@@ -47473,5 +47499,5 @@
 </file>
 
 <file path=customXml/itemProps5.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9A9BF502-B42C-450C-B368-3F1DB4D01843}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1A131F8C-1239-4866-98C5-55C331D3FF7E}"/>
 </file>